--- a/data/Fernando RivasT3-2025.xlsx
+++ b/data/Fernando RivasT3-2025.xlsx
@@ -583,7 +583,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>2.82140572</v>
+        <v>3.13489525</v>
       </c>
     </row>
   </sheetData>
